--- a/experiment result cnn/2048_0.9_40_zs50_kappa_lp.xlsx
+++ b/experiment result cnn/2048_0.9_40_zs50_kappa_lp.xlsx
@@ -443,7 +443,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.001042473588685564</v>
+        <v>8.001999999671805e-05</v>
       </c>
     </row>
     <row r="3">
@@ -451,7 +451,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.06589223141070302</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -459,7 +459,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.001730681100514608</v>
+        <v>6.001799999675806e-05</v>
       </c>
     </row>
     <row r="5">
@@ -467,7 +467,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.03298564658821353</v>
+        <v>0.00788489130252407</v>
       </c>
     </row>
     <row r="6">
@@ -475,7 +475,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.05977749464074519</v>
+        <v>0.006652536754963373</v>
       </c>
     </row>
     <row r="7">
@@ -483,7 +483,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.000843522124850583</v>
+        <v>0.02725505983061705</v>
       </c>
     </row>
     <row r="8">
@@ -491,7 +491,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.002511004838554302</v>
+        <v>0.00240737832700312</v>
       </c>
     </row>
     <row r="9">
@@ -499,7 +499,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.000280259948984333</v>
+        <v>0.01382222653167567</v>
       </c>
     </row>
     <row r="10">
@@ -507,7 +507,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0005012490998837391</v>
+        <v>0.0002001319998358176</v>
       </c>
     </row>
     <row r="11">
@@ -515,7 +515,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0001400979802449368</v>
+        <v>0.03579960815703864</v>
       </c>
     </row>
     <row r="12">
@@ -523,7 +523,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0004208810127266402</v>
+        <v>0.00213107536932668</v>
       </c>
     </row>
     <row r="13">
@@ -531,7 +531,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0008833778324478346</v>
+        <v>0.02311721986300275</v>
       </c>
     </row>
     <row r="14">
@@ -539,7 +539,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0004807716936005807</v>
+        <v>0.0002401599998256495</v>
       </c>
     </row>
     <row r="15">
@@ -547,7 +547,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.002371241786817605</v>
+        <v>0.01283867127007357</v>
       </c>
     </row>
     <row r="16">
@@ -555,7 +555,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0001600639935679731</v>
+        <v>0.0002601299999224325</v>
       </c>
     </row>
     <row r="17">
@@ -563,7 +563,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.002421080931367929</v>
+        <v>0.003836138590305096</v>
       </c>
     </row>
     <row r="18">
@@ -571,7 +571,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0133186995799021</v>
+        <v>0.0001801059999031852</v>
       </c>
     </row>
     <row r="19">
@@ -579,7 +579,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.002018787150086317</v>
+        <v>0.003456423047633788</v>
       </c>
     </row>
     <row r="20">
@@ -587,7 +587,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.01311011057711293</v>
+        <v>0.0005006779965515672</v>
       </c>
     </row>
     <row r="21">
@@ -595,7 +595,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>6.001799819441653e-05</v>
+        <v>0.05291031289575606</v>
       </c>
     </row>
     <row r="22">
@@ -603,7 +603,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>0.005289004464392979</v>
+        <v>0.0003605799966477418</v>
       </c>
     </row>
     <row r="23">
@@ -611,7 +611,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>0.03070519197660532</v>
+        <v>0.000560539998916095</v>
       </c>
     </row>
     <row r="24">
@@ -619,7 +619,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0003202199501207895</v>
+        <v>0.06286762416263149</v>
       </c>
     </row>
     <row r="25">
@@ -627,7 +627,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>0.004411354906766623</v>
       </c>
     </row>
     <row r="26">
@@ -635,7 +635,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0001400979999038255</v>
+        <v>0.004917378025481125</v>
       </c>
     </row>
     <row r="27">
@@ -643,7 +643,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0001200719999480978</v>
+        <v>4.000399999991998e-05</v>
       </c>
     </row>
     <row r="28">
@@ -651,7 +651,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>0.003954269901248753</v>
+        <v>0.004406997791640513</v>
       </c>
     </row>
     <row r="29">
@@ -659,7 +659,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0001000179995984394</v>
+        <v>0.00649333961328954</v>
       </c>
     </row>
     <row r="30">
@@ -667,7 +667,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0591736029663244</v>
+        <v>0.0002201459998326557</v>
       </c>
     </row>
     <row r="31">
@@ -675,7 +675,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>8.001999959647797e-05</v>
+        <v>0.06812551124288237</v>
       </c>
     </row>
     <row r="32">
@@ -683,7 +683,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>0.08503711909092333</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -691,7 +691,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>4.000799999935975e-05</v>
+        <v>0.01056526063053206</v>
       </c>
     </row>
     <row r="34">
@@ -699,7 +699,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0001000219981943365</v>
+        <v>0.03376057426978406</v>
       </c>
     </row>
     <row r="35">
@@ -707,7 +707,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0002802959123261577</v>
+        <v>0.0006418079674043766</v>
       </c>
     </row>
     <row r="36">
@@ -715,7 +715,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>0.009509391709961741</v>
+        <v>0.03508180587626832</v>
       </c>
     </row>
     <row r="37">
@@ -723,7 +723,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>2.000199999995999e-05</v>
+        <v>0.0004007239947672736</v>
       </c>
     </row>
     <row r="38">
@@ -731,7 +731,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>0.01430064749223619</v>
+        <v>0.00144473186112228</v>
       </c>
     </row>
     <row r="39">
@@ -739,7 +739,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>0.04498204163932466</v>
+        <v>4.000799999935975e-05</v>
       </c>
     </row>
     <row r="40">
@@ -747,7 +747,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>0.001848600023911394</v>
+        <v>0.0008214259862123633</v>
       </c>
     </row>
     <row r="41">
@@ -755,7 +755,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>0.00956860478916402</v>
+        <v>0.0997545199328138</v>
       </c>
     </row>
     <row r="42">
@@ -763,7 +763,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>0.04317794406732628</v>
+        <v>0.005839908497953858</v>
       </c>
     </row>
     <row r="43">
@@ -771,7 +771,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>0.005776788123066313</v>
+        <v>4.000399999991998e-05</v>
       </c>
     </row>
     <row r="44">
@@ -779,7 +779,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0002603378628953319</v>
+        <v>0.001243563918047222</v>
       </c>
     </row>
     <row r="45">
@@ -787,7 +787,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0880534544980542</v>
+        <v>0.01515835477726917</v>
       </c>
     </row>
     <row r="46">
@@ -795,7 +795,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>0.003972243013167691</v>
+        <v>0.06700623033888206</v>
       </c>
     </row>
     <row r="47">
@@ -803,7 +803,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>0.02500484017658712</v>
+        <v>0.001464157910860293</v>
       </c>
     </row>
     <row r="48">
@@ -811,7 +811,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>0.004702908521191764</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -819,7 +819,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>0.005929841467500752</v>
+        <v>0.0002000839999646868</v>
       </c>
     </row>
     <row r="50">
@@ -827,7 +827,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>0.01977675681563225</v>
+        <v>6.001799999675806e-05</v>
       </c>
     </row>
     <row r="51">
@@ -835,7 +835,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>0.002596129646921062</v>
+        <v>0.0005207759956217139</v>
       </c>
     </row>
     <row r="52">
@@ -843,7 +843,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>0.0007024457086413856</v>
+        <v>0.06590740575334139</v>
       </c>
     </row>
     <row r="53">
@@ -851,7 +851,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0006211370268359083</v>
+        <v>0.07122790752534303</v>
       </c>
     </row>
     <row r="54">
@@ -859,7 +859,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>0.05013321229470097</v>
+        <v>0.006966586141507508</v>
       </c>
     </row>
     <row r="55">
@@ -867,7 +867,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>0.06794154859075566</v>
+        <v>0.0005810859887508287</v>
       </c>
     </row>
     <row r="56">
@@ -875,7 +875,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>0.002223688535758859</v>
+        <v>0.02335104779934249</v>
       </c>
     </row>
     <row r="57">
@@ -883,7 +883,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>0.004521472611214208</v>
+        <v>0.1563390451951546</v>
       </c>
     </row>
     <row r="58">
@@ -891,7 +891,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>0.004058904539472413</v>
+        <v>0.0648629569969795</v>
       </c>
     </row>
     <row r="59">
@@ -899,7 +899,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>0.0009035302831205273</v>
+        <v>0.1015935266432492</v>
       </c>
     </row>
     <row r="60">
@@ -907,7 +907,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>0.08340728883410191</v>
+        <v>0.0001600439999890315</v>
       </c>
     </row>
     <row r="61">
@@ -915,7 +915,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>0.000600651840962727</v>
+        <v>0.003036200708345926</v>
       </c>
     </row>
     <row r="62">
@@ -923,7 +923,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>0.002664549291020877</v>
+        <v>0.02464741369410619</v>
       </c>
     </row>
     <row r="63">
@@ -931,7 +931,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>0.002643454315415275</v>
+        <v>0.0006418039674049368</v>
       </c>
     </row>
     <row r="64">
@@ -939,7 +939,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>0.02063359853837397</v>
+        <v>0.05110050550232622</v>
       </c>
     </row>
     <row r="65">
@@ -947,7 +947,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>0.000903542281315064</v>
+        <v>0.002248527550086018</v>
       </c>
     </row>
     <row r="66">
@@ -955,7 +955,7 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>0.03968588806691979</v>
+        <v>0.0008417039822655157</v>
       </c>
     </row>
     <row r="67">
@@ -963,7 +963,7 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>0.008642933989712363</v>
+        <v>0.01250743720859604</v>
       </c>
     </row>
     <row r="68">
@@ -971,7 +971,7 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>0.004573646510235766</v>
+        <v>0.01455916882816443</v>
       </c>
     </row>
     <row r="69">
@@ -979,7 +979,7 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>0.05103046577355301</v>
+        <v>0.08368700975681007</v>
       </c>
     </row>
     <row r="70">
@@ -987,7 +987,7 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>0.01118346643819212</v>
+        <v>0.002834352437214177</v>
       </c>
     </row>
     <row r="71">
@@ -995,7 +995,7 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>0.02166816881580255</v>
+        <v>0.0001400419999890715</v>
       </c>
     </row>
     <row r="72">
@@ -1003,7 +1003,7 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>0.005270646996304413</v>
+        <v>0.002778031630829222</v>
       </c>
     </row>
     <row r="73">
@@ -1011,7 +1011,7 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>0.002234830713290473</v>
+        <v>0.001125635681014224</v>
       </c>
     </row>
     <row r="74">
@@ -1019,7 +1019,7 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>0.03373264190910084</v>
+        <v>0.006349466773808425</v>
       </c>
     </row>
     <row r="75">
@@ -1027,7 +1027,7 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>0.01147520176899968</v>
+        <v>0.0005806059982637737</v>
       </c>
     </row>
     <row r="76">
@@ -1035,7 +1035,7 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>0.08602509601741044</v>
+        <v>0.03268831804614859</v>
       </c>
     </row>
     <row r="77">
@@ -1043,7 +1043,7 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>0.007204805038825673</v>
+        <v>0.01664698545231884</v>
       </c>
     </row>
     <row r="78">
@@ -1051,7 +1051,7 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>0.002817990385836052</v>
+        <v>0.04053387429973725</v>
       </c>
     </row>
     <row r="79">
@@ -1059,7 +1059,7 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>0.08783379080614272</v>
+        <v>0.04132110268715979</v>
       </c>
     </row>
     <row r="80">
@@ -1067,7 +1067,7 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>0.1144939108053919</v>
+        <v>0.0107829574589817</v>
       </c>
     </row>
     <row r="81">
@@ -1075,7 +1075,7 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>0.000220113979442936</v>
+        <v>0.004226782163777373</v>
       </c>
     </row>
     <row r="82">
@@ -1083,7 +1083,7 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>0.009068932214795798</v>
+        <v>0.02585920638065827</v>
       </c>
     </row>
     <row r="83">
@@ -1091,7 +1091,7 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>0.09887915883996963</v>
+        <v>0.02651921478020541</v>
       </c>
     </row>
     <row r="84">
@@ -1099,7 +1099,7 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>0.08114390612676278</v>
+        <v>0.01741006463767424</v>
       </c>
     </row>
     <row r="85">
@@ -1107,7 +1107,7 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>0.005218416450349708</v>
+        <v>0.001063649885207477</v>
       </c>
     </row>
     <row r="86">
@@ -1115,7 +1115,7 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>0.027515701936104</v>
+        <v>0.008855787665412489</v>
       </c>
     </row>
     <row r="87">
@@ -1123,7 +1123,7 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>0.006231043452159318</v>
+        <v>0.03114737101475219</v>
       </c>
     </row>
     <row r="88">
@@ -1131,7 +1131,7 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>0.0009220744546450062</v>
+        <v>0.1590803192038145</v>
       </c>
     </row>
     <row r="89">
@@ -1139,7 +1139,7 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>0.0850272954505565</v>
+        <v>0.002747704581040996</v>
       </c>
     </row>
     <row r="90">
@@ -1147,7 +1147,7 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>0.04652943411081181</v>
+        <v>0.004466791201329217</v>
       </c>
     </row>
     <row r="91">
@@ -1155,7 +1155,7 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>0.011691619541933</v>
+        <v>0.01276687470872617</v>
       </c>
     </row>
     <row r="92">
@@ -1163,7 +1163,7 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>0.002535587340878389</v>
+        <v>0.01069526952948227</v>
       </c>
     </row>
     <row r="93">
@@ -1171,7 +1171,7 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>0.0274644452700027</v>
+        <v>0.01660451093018354</v>
       </c>
     </row>
     <row r="94">
@@ -1179,7 +1179,7 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>0.006007420808666673</v>
+        <v>0.004533582691335724</v>
       </c>
     </row>
     <row r="95">
@@ -1187,7 +1187,7 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>0.000360359755443035</v>
+        <v>0.09190618013332039</v>
       </c>
     </row>
     <row r="96">
@@ -1195,7 +1195,7 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>0.06467163712702127</v>
+        <v>0.003017030150306339</v>
       </c>
     </row>
     <row r="97">
@@ -1203,7 +1203,7 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>0.04801066669653987</v>
+        <v>0.06882623540850168</v>
       </c>
     </row>
     <row r="98">
@@ -1211,7 +1211,7 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>0.0002801559689381424</v>
+        <v>0.1170626011980785</v>
       </c>
     </row>
     <row r="99">
@@ -1219,7 +1219,7 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>0.0001400579999743347</v>
+        <v>0.02797799705853258</v>
       </c>
     </row>
     <row r="100">
@@ -1227,7 +1227,7 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>0.001856886358502594</v>
+        <v>0.06591584188928777</v>
       </c>
     </row>
     <row r="101">
@@ -1235,7 +1235,7 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>0.02326091931863929</v>
+        <v>0.08566769320546772</v>
       </c>
     </row>
   </sheetData>
